--- a/08-04-24 to 08-10-24 Milwaukee Schedule.xlsx
+++ b/08-04-24 to 08-10-24 Milwaukee Schedule.xlsx
@@ -1807,7 +1807,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -2029,12 +2029,13 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2108,13 +2109,12 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -2157,21 +2157,9 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2260,7 +2248,11 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2309,7 +2301,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2356,7 +2348,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #877, SOUTH MILWAUKEE</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2411,7 +2403,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>PICK #877, SOUTH MILWAUKEE</t>
+          <t>2901 S CHICAGO AVENUE</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2466,7 +2458,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>2901 S CHICAGO AVENUE</t>
+          <t>https://goo.gl/maps/xYaHQvY96kQ2</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2517,7 +2509,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xYaHQvY96kQ2</t>
+          <t>SET UP ON REG #1 OR 2 (FURTHEST FROM SELF C/O)</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2578,11 +2570,7 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #1 OR 2 (FURTHEST FROM SELF C/O)</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2628,9 +2616,21 @@
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2673,19 +2673,15 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2728,12 +2724,12 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2791,12 +2787,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2854,12 +2850,12 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2913,12 +2909,12 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2976,12 +2972,12 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3035,12 +3031,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3098,12 +3094,12 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3157,12 +3153,12 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3224,12 +3220,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3304,12 +3300,12 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3376,15 +3372,19 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3448,12 +3448,12 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3521,21 +3521,9 @@
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>

--- a/08-04-24 to 08-10-24 Milwaukee Schedule.xlsx
+++ b/08-04-24 to 08-10-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,11 +1112,7 @@
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>5:00 am meet for Carlie/Cristi at Grafton Park n Ride</t>
-        </is>
-      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
@@ -1182,9 +1178,21 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1258,19 +1266,15 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1333,19 +1337,15 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>(Driver)</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1404,19 +1404,15 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Cristi</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1484,12 +1480,12 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1501,7 +1497,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1555,15 +1551,20 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
@@ -1572,15 +1573,10 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1635,15 +1631,19 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1652,12 +1652,13 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -1714,18 +1715,18 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1736,7 +1737,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -1786,12 +1787,12 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1807,7 +1808,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -1857,18 +1858,17 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1933,12 +1933,12 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2008,12 +2008,12 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2088,12 +2088,12 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2143,12 +2143,12 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2184,21 +2184,9 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -2231,21 +2219,9 @@
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
@@ -2295,7 +2271,11 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -2342,7 +2322,11 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2395,7 +2379,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>PICK #415 +RX, WAUKESHA-SUNSET WEST</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2450,7 +2434,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>1220 WEST SUNSET DR</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2501,7 +2485,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>PICK #415 +RX, WAUKESHA-SUNSET WEST</t>
+          <t>https://goo.gl/maps/oRdoVwf2Qut</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2564,7 +2548,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>1220 WEST SUNSET DR</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2609,11 +2593,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/oRdoVwf2Qut</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
@@ -2663,13 +2643,21 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
@@ -2718,8 +2706,16 @@
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
@@ -2771,19 +2767,15 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Joshua M</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
@@ -2838,15 +2830,19 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -2897,12 +2893,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2956,19 +2952,15 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
@@ -3019,12 +3011,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3036,7 +3028,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3082,15 +3074,19 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
@@ -3099,7 +3095,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3141,15 +3137,20 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
@@ -3158,7 +3159,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3204,12 +3205,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3225,7 +3226,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3283,18 +3284,17 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
@@ -3305,10 +3305,14 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3356,12 +3360,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3377,7 +3381,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3432,12 +3436,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3446,21 +3450,9 @@
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3507,12 +3499,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3570,12 +3562,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3637,17 +3629,18 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
@@ -3704,12 +3697,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3759,18 +3752,18 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Until 12:00</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
@@ -3817,21 +3810,9 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3880,22 +3861,9 @@
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 12:00</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -3937,7 +3905,11 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7:00 AM START </t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -3992,7 +3964,11 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -4033,7 +4009,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t xml:space="preserve">7:00 AM START </t>
+          <t>AURORA OUTPATIENT RX #1160, WAUKESHA</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -4076,7 +4052,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>W231 N1440 CORPORATE CT, SUITE 101</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -4107,7 +4083,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1160, WAUKESHA</t>
+          <t>https://goo.gl/maps/aredhDF1mHF2</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -4148,11 +4124,7 @@
       </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>W231 N1440 CORPORATE CT, SUITE 101</t>
-        </is>
-      </c>
+      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
@@ -4178,13 +4150,21 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/aredhDF1mHF2</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
@@ -4240,21 +4220,9 @@
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
@@ -4284,7 +4252,11 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
@@ -4311,7 +4283,11 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -4320,68 +4296,6 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
